--- a/dates_prev.xlsx
+++ b/dates_prev.xlsx
@@ -889,7 +889,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="109">
